--- a/paper/resource/cross_validation_method_63percommit_mrr_cost.xlsx
+++ b/paper/resource/cross_validation_method_63percommit_mrr_cost.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26518"/>
   <workbookPr date1904="1" showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10560" yWindow="4420" windowWidth="25600" windowHeight="16060" tabRatio="895" activeTab="6"/>
+    <workbookView xWindow="-33280" yWindow="3280" windowWidth="25600" windowHeight="16060" tabRatio="895" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="minconf_table.csv" sheetId="1" r:id="rId1"/>
@@ -139,9 +139,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="177" formatCode="0.000%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -203,7 +202,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="458">
+  <cellStyleXfs count="470">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -654,6 +653,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -667,9 +678,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="449" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="449" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="458">
+  <cellStyles count="470">
     <cellStyle name="パーセント" xfId="449" builtinId="5"/>
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
@@ -899,6 +910,12 @@
     <cellStyle name="ハイパーリンク" xfId="452" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="454" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="456" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="458" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="460" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="462" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="464" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="466" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="468" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -1128,6 +1145,12 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="453" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="455" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="457" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="459" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="461" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="463" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="465" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="467" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="469" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -1207,9 +1230,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.150100974639317"/>
-          <c:y val="0.0339561043241688"/>
-          <c:w val="0.787936205426551"/>
-          <c:h val="0.827245884037223"/>
+          <c:y val="0.37207080160062"/>
+          <c:w val="0.790028333278424"/>
+          <c:h val="0.489131115270427"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1882,11 +1905,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2129331112"/>
-        <c:axId val="2128612104"/>
+        <c:axId val="-2069105000"/>
+        <c:axId val="-2069673816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2129331112"/>
+        <c:axId val="-2069105000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1954,7 +1977,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2128612104"/>
+        <c:crossAx val="-2069673816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1962,7 +1985,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2128612104"/>
+        <c:axId val="-2069673816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2010,7 +2033,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2129331112"/>
+        <c:crossAx val="-2069105000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2024,6 +2047,37 @@
         </a:ln>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.191216354231872"/>
+          <c:y val="0.0163934426229508"/>
+          <c:w val="0.630119592791487"/>
+          <c:h val="0.330427746224345"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2430,11 +2484,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2031352008"/>
-        <c:axId val="2031221448"/>
+        <c:axId val="-2098331144"/>
+        <c:axId val="-2124455608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2031352008"/>
+        <c:axId val="-2098331144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2483,7 +2537,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2031221448"/>
+        <c:crossAx val="-2124455608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2491,7 +2545,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2031221448"/>
+        <c:axId val="-2124455608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2522,7 +2576,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2031352008"/>
+        <c:crossAx val="-2098331144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -2938,11 +2992,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2138300472"/>
-        <c:axId val="2118010952"/>
+        <c:axId val="-2067620712"/>
+        <c:axId val="-2071890552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2138300472"/>
+        <c:axId val="-2067620712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2991,7 +3045,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118010952"/>
+        <c:crossAx val="-2071890552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2999,7 +3053,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2118010952"/>
+        <c:axId val="-2071890552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -3030,7 +3084,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138300472"/>
+        <c:crossAx val="-2067620712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -4290,11 +4344,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2077378472"/>
-        <c:axId val="-2077385560"/>
+        <c:axId val="-2071959608"/>
+        <c:axId val="-2071491016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2077378472"/>
+        <c:axId val="-2071959608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -4342,13 +4396,13 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2077385560"/>
+        <c:crossAx val="-2071491016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2077385560"/>
+        <c:axId val="-2071491016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -4367,7 +4421,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP" sz="1800"/>
-                  <a:t>Precision</a:t>
+                  <a:t>MRR</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4389,7 +4443,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2077378472"/>
+        <c:crossAx val="-2071959608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -4722,6 +4776,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4966,6 +5021,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5509,6 +5565,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5557,6 +5614,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5665,11 +5723,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2133099544"/>
-        <c:axId val="2133802648"/>
+        <c:axId val="-2053363240"/>
+        <c:axId val="-2053152072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2133099544"/>
+        <c:axId val="-2053363240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -5717,13 +5775,13 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2133802648"/>
+        <c:crossAx val="-2053152072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2133802648"/>
+        <c:axId val="-2053152072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -5747,6 +5805,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5763,7 +5822,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2133099544"/>
+        <c:crossAx val="-2053363240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -6080,11 +6139,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2133813880"/>
-        <c:axId val="2133815992"/>
+        <c:axId val="-2053131384"/>
+        <c:axId val="-2053983032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2133813880"/>
+        <c:axId val="-2053131384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6107,6 +6166,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -6123,7 +6183,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2133815992"/>
+        <c:crossAx val="-2053983032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6131,7 +6191,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2133815992"/>
+        <c:axId val="-2053983032"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -6162,6 +6222,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -6178,7 +6239,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2133813880"/>
+        <c:crossAx val="-2053131384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6251,9 +6312,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.173676931803016"/>
-          <c:y val="0.0615529063080598"/>
-          <c:w val="0.774099326037635"/>
-          <c:h val="0.80807860744935"/>
+          <c:y val="0.309340533760713"/>
+          <c:w val="0.778248766622015"/>
+          <c:h val="0.560290990174901"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -6930,11 +6991,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2128938360"/>
-        <c:axId val="2128844104"/>
+        <c:axId val="-2053503016"/>
+        <c:axId val="-2053678264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2128938360"/>
+        <c:axId val="-2053503016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6957,6 +7018,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -6973,7 +7035,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2128844104"/>
+        <c:crossAx val="-2053678264"/>
         <c:crossesAt val="0.1"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6981,7 +7043,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2128844104"/>
+        <c:axId val="-2053678264"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -7011,6 +7073,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
@@ -7027,7 +7090,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2128938360"/>
+        <c:crossAx val="-2053503016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7041,6 +7104,37 @@
         </a:ln>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29958800274447"/>
+          <c:y val="0.0269933802522472"/>
+          <c:w val="0.544767863560623"/>
+          <c:h val="0.272467702599122"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -7059,12 +7153,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
+      <xdr:colOff>774700</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:to>
@@ -7276,12 +7370,12 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>927100</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>215900</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:to>
@@ -7633,7 +7727,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J13"/>
+      <selection activeCell="B22" sqref="B22:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -8677,8 +8771,8 @@
   <sheetPr codeName="Sheet10" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -10049,8 +10143,8 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -11331,8 +11425,8 @@
   <sheetPr codeName="Sheet8" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -12476,8 +12570,8 @@
   <sheetPr codeName="Sheet9" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
